--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelMauGiaThueTaiNguyen.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelMauGiaThueTaiNguyen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEB\ASP\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AspNetCore\net5\CSDLGia\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AD955B-7055-4A0F-9552-EBC3012C71CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F55811-D286-4579-91A0-34B3D4CF4264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
@@ -25,22 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Mã nhóm tài nguyên cấp 1</t>
-  </si>
-  <si>
-    <t>Mã nhóm tài nguyên cấp 2</t>
-  </si>
-  <si>
-    <t>Mã nhóm tài nguyên cấp 3</t>
-  </si>
-  <si>
-    <t>Mã nhóm tài nguyên cấp 4</t>
-  </si>
-  <si>
-    <t>Mã nhóm tài nguyên cấp 5</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Đơn vị tính</t>
   </si>
@@ -66,7 +51,34 @@
     <t>I</t>
   </si>
   <si>
-    <t>Mã nhóm tài nguyên cấp 6</t>
+    <t>Mã nhóm tài nguyên
+ cấp 1</t>
+  </si>
+  <si>
+    <t>Mã nhóm tài nguyên
+ cấp 2</t>
+  </si>
+  <si>
+    <t>Mã nhóm tài nguyên
+ cấp 3</t>
+  </si>
+  <si>
+    <t>Mã nhóm tài nguyên 
+cấp 4</t>
+  </si>
+  <si>
+    <t>Mã nhóm tài nguyên
+ cấp 5</t>
+  </si>
+  <si>
+    <t>Mã nhóm tài nguyên
+ cấp 6</t>
+  </si>
+  <si>
+    <t>Mã nhóm (lấy trong Danh mục phần mềm)</t>
+  </si>
+  <si>
+    <t>Bettong</t>
   </si>
 </sst>
 </file>
@@ -74,10 +86,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +112,25 @@
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF132339"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,30 +167,31 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -475,23 +507,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="7" width="22" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="22" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="7" width="22" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22" style="4" customWidth="1"/>
+    <col min="10" max="10" width="22" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.85546875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -502,68 +537,109 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="5">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="5">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="F3" s="5">
         <v>5</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="G3" s="5">
         <v>6</v>
       </c>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="6">
+        <v>5000</v>
+      </c>
+      <c r="K3" s="7">
+        <v>220815531715</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4">
+        <v>111</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1111</v>
+      </c>
+      <c r="F4" s="4">
+        <v>11111</v>
+      </c>
+      <c r="G4" s="4">
+        <v>111111</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6">
-        <v>4</v>
-      </c>
-      <c r="F4" s="6">
-        <v>5</v>
-      </c>
-      <c r="G4" s="6">
-        <v>6</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="7">
-        <v>5000</v>
+      <c r="J4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K4" s="9">
+        <v>220815531715</v>
       </c>
     </row>
   </sheetData>

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelMauGiaThueTaiNguyen.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelMauGiaThueTaiNguyen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AspNetCore\net5\CSDLGia\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F55811-D286-4579-91A0-34B3D4CF4264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2816E3A8-8990-4B84-9043-E688C9FF3478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Đơn vị tính</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Bettong</t>
+  </si>
+  <si>
+    <t>KHOANGSANKIMLOAI</t>
   </si>
 </sst>
 </file>
@@ -169,7 +172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -191,7 +194,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -510,7 +518,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -537,7 +545,7 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -603,43 +611,43 @@
       <c r="J3" s="6">
         <v>5000</v>
       </c>
-      <c r="K3" s="7">
-        <v>220815531715</v>
+      <c r="K3" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="9">
         <v>11</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="9">
         <v>111</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="9">
         <v>1111</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="9">
         <v>11111</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="9">
         <v>111111</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="9">
         <v>10000</v>
       </c>
-      <c r="K4" s="9">
-        <v>220815531715</v>
+      <c r="K4" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelMauGiaThueTaiNguyen.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelMauGiaThueTaiNguyen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AspNetCore\net5\CSDLGia\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2816E3A8-8990-4B84-9043-E688C9FF3478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90396EB2-3802-4080-B086-D6BAAF551F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
@@ -88,22 +88,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -111,7 +110,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -130,10 +129,17 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF132339"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -167,17 +173,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -187,17 +212,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -517,144 +557,150 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="7" width="22" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="1"/>
+    <col min="2" max="7" width="22" style="3" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22" style="4" customWidth="1"/>
-    <col min="10" max="10" width="22" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.85546875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="22" style="3" customWidth="1"/>
+    <col min="10" max="10" width="22" style="7" customWidth="1"/>
+    <col min="11" max="11" width="30.875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>3</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>4</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>5</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>6</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="6">
         <v>5000</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+    <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="4">
         <v>11</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="4">
         <v>111</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="4">
         <v>1111</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="4">
         <v>11111</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="4">
         <v>111111</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="9">
         <v>10000</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="14" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="J3:J1048576" xr:uid="{C5825902-94CB-4BCE-BA33-76860D78BEB0}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
